--- a/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1494682717941211</v>
+        <v>0.146958107373492</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1344183448587653</v>
+        <v>0.1323073854060924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1454295391985012</v>
+        <v>0.1457667155280316</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2111922095685972</v>
+        <v>0.2097612432831181</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1749598583685654</v>
+        <v>0.1728430504305983</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1804106335321779</v>
+        <v>0.1811020443392354</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.08955715185632894</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.09774226463925761</v>
+        <v>0.09774226463925763</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.09359488656877619</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07621045941147164</v>
+        <v>0.07604422357731765</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08571286043789203</v>
+        <v>0.08463127530142051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08455170551597058</v>
+        <v>0.08436990291179834</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1053389632120304</v>
+        <v>0.1043055877680341</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1115312470764575</v>
+        <v>0.1108659965386091</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1039289544123043</v>
+        <v>0.1032458923417668</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05111341099372573</v>
+        <v>0.0514860306660025</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0487895419098193</v>
+        <v>0.04968945251819493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05479643573711492</v>
+        <v>0.05498207724581084</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0976214965945657</v>
+        <v>0.09442320441665149</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08570761664301181</v>
+        <v>0.08345324596771134</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08270363081216862</v>
+        <v>0.0829980028444902</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.09997291746525863</v>
+        <v>0.09997291746525865</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.1035076398263607</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1017902565600197</v>
+        <v>0.1017902565600198</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08968148926619648</v>
+        <v>0.08945322996184633</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09414789344667149</v>
+        <v>0.09470603151663626</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09512194842637657</v>
+        <v>0.09486664086405343</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1118724980941046</v>
+        <v>0.1117072058187909</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1128228130697764</v>
+        <v>0.1139177392097086</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1089217919993792</v>
+        <v>0.1091462581116058</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>86472</v>
+        <v>85020</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>110417</v>
+        <v>108683</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>203597</v>
+        <v>204069</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>122181</v>
+        <v>121353</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>143719</v>
+        <v>141980</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>252570</v>
+        <v>253538</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>169921</v>
+        <v>169551</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>186056</v>
+        <v>183708</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>372055</v>
+        <v>371255</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>234867</v>
+        <v>232563</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>242100</v>
+        <v>240655</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>457321</v>
+        <v>454315</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36372</v>
+        <v>36637</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>35737</v>
+        <v>36396</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>79130</v>
+        <v>79398</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>69466</v>
+        <v>67190</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>62779</v>
+        <v>61128</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>119429</v>
+        <v>119854</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>315656</v>
+        <v>314853</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>350664</v>
+        <v>352743</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>689097</v>
+        <v>687248</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>393763</v>
+        <v>393181</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>420221</v>
+        <v>424299</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>789068</v>
+        <v>790694</v>
       </c>
     </row>
     <row r="20">
